--- a/fgt-tables/fgt_sexo_rm.xlsx
+++ b/fgt-tables/fgt_sexo_rm.xlsx
@@ -381,10 +381,10 @@
         </is>
       </c>
       <c r="B2">
-        <v>0.261936110484742</v>
+        <v>0.2031189090006017</v>
       </c>
       <c r="C2">
-        <v>0.001745176260356999</v>
+        <v>0.00164196779353612</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         </is>
       </c>
       <c r="B3">
-        <v>0.2677820941789464</v>
+        <v>0.2444628943021682</v>
       </c>
       <c r="C3">
-        <v>0.001819737329983164</v>
+        <v>0.001927562238199013</v>
       </c>
     </row>
   </sheetData>
